--- a/classes/rogue/RoguishArchetypes.xlsx
+++ b/classes/rogue/RoguishArchetypes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Arcane Trickster</t>
   </si>
@@ -19,31 +19,25 @@
     <t>Assassin</t>
   </si>
   <si>
-    <t>Inquisitive</t>
-  </si>
-  <si>
-    <t>Mastermind</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Revived</t>
-  </si>
-  <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Soulknife</t>
-  </si>
-  <si>
-    <t>Swashbuckler</t>
-  </si>
-  <si>
-    <t>Thief</t>
-  </si>
-  <si>
-    <t>Wild Card</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Disguise Kit=Poisoner's Kit</t>
+  </si>
+  <si>
+    <t>true=classes/rogue/BonusSpellsArcaneTrickster.xlsx</t>
+  </si>
+  <si>
+    <t>false=</t>
+  </si>
+  <si>
+    <t>true=Intelligence=classes/rogue/SpellSlotsArcaneTrickster.xlsx=classes/rogue/SpellListArcaneTrickster.xlsx=K</t>
+  </si>
+  <si>
+    <t>3/Mage Hand=3/Mage Hand Legerdemain=9/Magical Ambush=13/Versatile Trickster=17/Spell Thief</t>
+  </si>
+  <si>
+    <t>3/Assassinate=9/Infiltration Expertise=13/Impostor=17/Death Strike</t>
   </si>
 </sst>
 </file>
@@ -307,32 +301,61 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
